--- a/biology/Botanique/Lychnis_flos-jovis/Lychnis_flos-jovis.xlsx
+++ b/biology/Botanique/Lychnis_flos-jovis/Lychnis_flos-jovis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lychnis flos-jovis, l'œillet de Jupiter, aussi appelé fleur de Jupiter, coquelourde, est une plante herbacée vivace appartenant au genre Lychnis et à la famille des Caryophyllacées.
 Synonyme :
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante cotonneuse, blanchâtre, haute de 30 à 80 cm, feuilles en forme de fer de lance, opposées, fleurs roses, grandes (20-30 mm), groupées par 4 à 10 aux extrémités des tiges, 5 pétales libres échancrés, 5 sépales presque entièrement soudés. Floraison : juin - juillet.
 </t>
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Endémique du sud-ouest des Alpes.
 </t>
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelouses rocailleuses, éboulis ensoleillés.
 Sur les autres projets Wikimedia :
